--- a/Team Progress.xlsx
+++ b/Team Progress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="640" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="640" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Week #1" sheetId="11" r:id="rId1"/>
@@ -15,13 +15,16 @@
     <sheet name="Week#6" sheetId="16" r:id="rId6"/>
     <sheet name="Week#7" sheetId="17" r:id="rId7"/>
     <sheet name="Week#8" sheetId="18" r:id="rId8"/>
+    <sheet name="Week#9" sheetId="19" r:id="rId9"/>
+    <sheet name="week#10" sheetId="20" r:id="rId10"/>
+    <sheet name="week#11" sheetId="21" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="89">
   <si>
     <t>Team Member Name</t>
   </si>
@@ -296,6 +299,36 @@
   </si>
   <si>
     <t>Prepare input types for different chart types</t>
+  </si>
+  <si>
+    <t>04/01/2017 8:00 PM to 9:00 PM</t>
+  </si>
+  <si>
+    <t>04/08/2017 8:00 PM to 9:00 PM</t>
+  </si>
+  <si>
+    <t>Duplicate dynamic query class for 4th datasource and 5th datasource</t>
+  </si>
+  <si>
+    <t>Work on controller classes</t>
+  </si>
+  <si>
+    <t>Test dynamic query classes.</t>
+  </si>
+  <si>
+    <t>40% done</t>
+  </si>
+  <si>
+    <t>04/15/2017 8:00 PM to 9:00 PM</t>
+  </si>
+  <si>
+    <t>Duplicate dynamic query class for 6th datasource</t>
+  </si>
+  <si>
+    <t>75% done</t>
+  </si>
+  <si>
+    <t>60% done</t>
   </si>
 </sst>
 </file>
@@ -996,6 +1029,290 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="16">
+        <v>42835</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="16">
+        <v>42835</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="16">
+        <v>42828</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="16">
+        <v>42835</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="16">
+        <v>42828</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="16">
+        <v>42841</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="16">
+        <v>42835</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="16">
+        <v>42828</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="16">
+        <v>42835</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="16">
+        <v>42828</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
@@ -2043,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,4 +2494,150 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="16">
+        <v>42828</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="16">
+        <v>42828</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="16">
+        <v>42828</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="16">
+        <v>42828</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="16">
+        <v>42828</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>